--- a/pred_ohlcv/54_21/2020-01-13 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 HC ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>790.0532752799998</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>790.4532752799997</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>692.6330752799997</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>727.1268752799997</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>618.1631752799996</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-662.4795247200004</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-661.9795247200004</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5997.036086829999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10261.04038187</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>10260.64038187</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>10038.48008187</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>10038.08008187</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>10071.91648187</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>10071.91648187</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>7099.001781870002</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7231.753781870002</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>7208.164781870002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7196.858681870002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>7109.413381870002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>13645.65868187</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>13595.21518187</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 HC ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>618.1631752799996</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>531.6612752799996</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-803.8408247200005</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-803.4408247200005</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-817.5008247200004</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-637.5008247200004</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-662.4795247200004</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-661.9795247200004</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-654.1709247200005</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>828.8740660499997</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5727.338986829999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5997.036086829999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>9205.63808187</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>9196.17278187</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>8668.161581869999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>10261.04038187</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>10260.64038187</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>10071.91648187</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>10071.91648187</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>7209.164781870002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>7196.858681870002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>13627.27868187</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>13625.65868187</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>13645.65868187</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>13595.21518187</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>13544.84168187</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
